--- a/ruoyi-admin/src/main/resources/excelOutTemplate/importTemplate.xlsx
+++ b/ruoyi-admin/src/main/resources/excelOutTemplate/importTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\adata\idejavaprojact\RuoYi-Vue-master\ruoyi-admin\src\main\resources\excelOutTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1D762B-F02C-4AF2-A918-3B1E85A91A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978630FF-167F-4DAD-9398-4DF928417331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="108">
   <si>
     <t>序号</t>
   </si>
@@ -368,6 +368,10 @@
   </si>
   <si>
     <t>氯菊酯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>全区编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -459,7 +463,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -479,6 +483,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -759,337 +764,338 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CG4"/>
+  <dimension ref="A1:CH4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" customWidth="1"/>
-    <col min="8" max="8" width="22.44140625" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" customWidth="1"/>
-    <col min="11" max="11" width="37.5546875" customWidth="1"/>
-    <col min="13" max="13" width="13.77734375" customWidth="1"/>
-    <col min="16" max="16" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="19.625" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="8" max="8" width="22.5" customWidth="1"/>
+    <col min="10" max="10" width="14.5" customWidth="1"/>
+    <col min="11" max="11" width="37.5" customWidth="1"/>
+    <col min="13" max="13" width="13.75" customWidth="1"/>
+    <col min="16" max="16" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" ht="72" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:86" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AU1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AV1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AW1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="AX1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="AY1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AZ1" s="3" t="s">
+      <c r="BA1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="BA1" s="3" t="s">
+      <c r="BB1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="BB1" s="3" t="s">
+      <c r="BC1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="BC1" s="3" t="s">
+      <c r="BD1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="BD1" s="3" t="s">
+      <c r="BE1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="BE1" s="3" t="s">
+      <c r="BF1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="BF1" s="3" t="s">
+      <c r="BG1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="BG1" s="3" t="s">
+      <c r="BH1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="BH1" s="3" t="s">
+      <c r="BI1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="BI1" s="3" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="BJ1" s="3" t="s">
+      <c r="BK1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="BK1" s="3" t="s">
+      <c r="BL1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="BL1" s="3" t="s">
+      <c r="BM1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="BM1" s="3" t="s">
+      <c r="BN1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="BN1" s="3" t="s">
+      <c r="BO1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="BO1" s="3" t="s">
+      <c r="BP1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="BP1" s="3" t="s">
+      <c r="BQ1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="BQ1" s="3" t="s">
+      <c r="BR1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="BR1" s="3" t="s">
+      <c r="BS1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="BS1" s="3" t="s">
+      <c r="BT1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="BT1" s="3" t="s">
+      <c r="BU1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="BU1" s="3" t="s">
+      <c r="BV1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="BV1" s="3" t="s">
+      <c r="BW1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="BW1" s="3" t="s">
+      <c r="BX1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="BX1" s="3" t="s">
+      <c r="BY1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="BY1" s="3" t="s">
+      <c r="BZ1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="BZ1" s="3" t="s">
+      <c r="CA1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="CA1" s="3" t="s">
+      <c r="CB1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="CB1" s="3" t="s">
+      <c r="CC1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="CC1" s="3" t="s">
+      <c r="CD1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="CD1" s="3" t="s">
+      <c r="CE1" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="CE1" s="3" t="s">
+      <c r="CF1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="CF1" s="3" t="s">
+      <c r="CG1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="CG1" s="3" t="s">
+      <c r="CH1" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="R2" s="6" t="s">
-        <v>94</v>
-      </c>
       <c r="S2" s="6" t="s">
         <v>94</v>
       </c>
@@ -1291,62 +1297,63 @@
       <c r="CG2" s="6" t="s">
         <v>94</v>
       </c>
+      <c r="CH2" s="6" t="s">
+        <v>94</v>
+      </c>
     </row>
-    <row r="3" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="O3" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="P3" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="Q3" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="R3" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="R3" s="6" t="s">
-        <v>94</v>
-      </c>
       <c r="S3" s="6" t="s">
         <v>94</v>
       </c>
@@ -1491,12 +1498,12 @@
       <c r="BN3" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="BO3" s="6">
+      <c r="BO3" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="BP3" s="6">
         <v>2.8807</v>
       </c>
-      <c r="BP3" s="6" t="s">
-        <v>94</v>
-      </c>
       <c r="BQ3" s="6" t="s">
         <v>94</v>
       </c>
@@ -1548,62 +1555,63 @@
       <c r="CG3" s="6" t="s">
         <v>94</v>
       </c>
+      <c r="CH3" s="6" t="s">
+        <v>94</v>
+      </c>
     </row>
-    <row r="4" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="K4" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="N4" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="O4" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="P4" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="Q4" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="R4" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="R4" s="6" t="s">
-        <v>94</v>
-      </c>
       <c r="S4" s="6" t="s">
         <v>94</v>
       </c>
@@ -1748,12 +1756,12 @@
       <c r="BN4" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="BO4" s="6">
+      <c r="BO4" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="BP4" s="6">
         <v>0.68289999999999995</v>
       </c>
-      <c r="BP4" s="6" t="s">
-        <v>94</v>
-      </c>
       <c r="BQ4" s="6" t="s">
         <v>94</v>
       </c>
@@ -1803,6 +1811,9 @@
         <v>94</v>
       </c>
       <c r="CG4" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="CH4" s="6" t="s">
         <v>94</v>
       </c>
     </row>

--- a/ruoyi-admin/src/main/resources/excelOutTemplate/importTemplate.xlsx
+++ b/ruoyi-admin/src/main/resources/excelOutTemplate/importTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\adata\idejavaprojact\RuoYi-Vue-master\ruoyi-admin\src\main\resources\excelOutTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978630FF-167F-4DAD-9398-4DF928417331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3996CF-4C3F-4111-AD7D-F83354B3BC28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="110">
   <si>
     <t>序号</t>
   </si>
@@ -372,6 +372,13 @@
   </si>
   <si>
     <t>全区编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式待定</t>
+  </si>
+  <si>
+    <t>格式待定</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -767,7 +774,7 @@
   <dimension ref="A1:CH4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1047,7 +1054,9 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
+      <c r="B2" s="7" t="s">
+        <v>109</v>
+      </c>
       <c r="C2" s="5" t="s">
         <v>82</v>
       </c>
@@ -1305,7 +1314,9 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="7" t="s">
+        <v>108</v>
+      </c>
       <c r="C3" s="5" t="s">
         <v>95</v>
       </c>
@@ -1563,7 +1574,9 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="7"/>
+      <c r="B4" s="7" t="s">
+        <v>109</v>
+      </c>
       <c r="C4" s="5" t="s">
         <v>97</v>
       </c>
